--- a/Тест_план_demowebshop.tricentis.com.xlsx
+++ b/Тест_план_demowebshop.tricentis.com.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8206d4f600c34161/Рабочий стол/скрины QA/HWs/Test_Plans_and_Test_Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C26286CF-5D61-4E6D-AF68-8D1F26AB3C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30208A7E-D904-4AA6-A881-164E259A68CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F3CC83F9-F107-4AA2-B633-CD33BEC03696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20112" windowHeight="11028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="20112" windowHeight="11028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -427,6 +427,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -648,8 +651,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A75" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -769,11 +772,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6">
+    <row r="17" spans="1:2" ht="39.6">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -917,13 +920,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="13.2">
+    <row r="41" spans="1:2" ht="20.399999999999999" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27.75" customHeight="1">
+    <row r="42" spans="1:2" ht="43.8" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="8" t="s">
         <v>46</v>
